--- a/data/Monthly Infographic - Hyperlinks.xlsx
+++ b/data/Monthly Infographic - Hyperlinks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpgplc-my.sharepoint.com/personal/hard_parikh_compass-usa_com/Documents/Desktop/infographic automation/Infographic-Automation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ParikH01\OneDrive - CPGPLC\Desktop\infographic automation\Infographic-Automation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10041" documentId="11_35FD250C1771E07877F93511595ED87656CCADF4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{942C2BCB-FE99-41DE-979E-CECB0A07158F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF37231-5EA1-41B8-9F7E-24F4E4A33F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Infographic" sheetId="1" r:id="rId1"/>

--- a/data/Monthly Infographic - Hyperlinks.xlsx
+++ b/data/Monthly Infographic - Hyperlinks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ParikH01\OneDrive - CPGPLC\Desktop\infographic automation\Infographic-Automation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpgplc-my.sharepoint.com/personal/hard_parikh_compass-usa_com/Documents/Desktop/infographic automation/Infographic-Automation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF37231-5EA1-41B8-9F7E-24F4E4A33F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="646" documentId="13_ncr:1_{3EF37231-5EA1-41B8-9F7E-24F4E4A33F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA679134-CD4C-427A-A7F5-EA597D886BEB}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/Monthly Infographic - Hyperlinks.xlsx
+++ b/data/Monthly Infographic - Hyperlinks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpgplc-my.sharepoint.com/personal/hard_parikh_compass-usa_com/Documents/Desktop/infographic automation/Infographic-Automation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="646" documentId="13_ncr:1_{3EF37231-5EA1-41B8-9F7E-24F4E4A33F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA679134-CD4C-427A-A7F5-EA597D886BEB}"/>
+  <xr:revisionPtr revIDLastSave="324" documentId="11_5981C70F171169370BFA3311595ED87656CC3C06" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C0F2B75-2971-4038-98AB-22F7B85C557D}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Infographic" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="17">
   <si>
     <t>METRIC_ID</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Order Accuracy</t>
   </si>
   <si>
-    <t>Beverage</t>
-  </si>
-  <si>
     <t>Neil Gardner</t>
   </si>
   <si>
@@ -88,17 +85,11 @@
   <si>
     <t>Sari Feltman</t>
   </si>
-  <si>
-    <t>Pricing</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.######"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,13 +139,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,11 +483,11 @@
         <v>2024</v>
       </c>
       <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <f>"24"</f>
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"11"</f>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -512,11 +501,11 @@
         <v>2024</v>
       </c>
       <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <f>"24"</f>
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="E3" t="str">
+        <f>"11"</f>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -530,11 +519,11 @@
         <v>2024</v>
       </c>
       <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="str">
-        <f>"92.04"</f>
-        <v>92.04</v>
+        <v>10</v>
+      </c>
+      <c r="E4" t="str">
+        <f>"97.49"</f>
+        <v>97.49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -548,11 +537,11 @@
         <v>2024</v>
       </c>
       <c r="D5">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="str">
-        <f>"7"</f>
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E5" t="str">
+        <f>"0"</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -566,11 +555,11 @@
         <v>2024</v>
       </c>
       <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="str">
-        <f>"0.29"</f>
-        <v>0.29</v>
+        <v>10</v>
+      </c>
+      <c r="E6" t="str">
+        <f>"0"</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -584,11 +573,11 @@
         <v>2024</v>
       </c>
       <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="str">
-        <f>"165"</f>
-        <v>165</v>
+        <v>10</v>
+      </c>
+      <c r="E7" t="str">
+        <f>"33"</f>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -602,11 +591,11 @@
         <v>2024</v>
       </c>
       <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3" t="str">
-        <f>"2.53"</f>
-        <v>2.53</v>
+        <v>10</v>
+      </c>
+      <c r="E8" t="str">
+        <f>"3.06"</f>
+        <v>3.06</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -620,11 +609,11 @@
         <v>2024</v>
       </c>
       <c r="D9">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="str">
-        <f>"93"</f>
-        <v>93</v>
+        <v>10</v>
+      </c>
+      <c r="E9" t="str">
+        <f>"0"</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -638,11 +627,11 @@
         <v>2024</v>
       </c>
       <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3" t="str">
-        <f>"3.32"</f>
-        <v>3.32</v>
+        <v>10</v>
+      </c>
+      <c r="E10" t="str">
+        <f>"0"</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -656,11 +645,11 @@
         <v>2024</v>
       </c>
       <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="str">
-        <f>"40"</f>
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="E11" t="str">
+        <f>"0"</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -674,11 +663,11 @@
         <v>2024</v>
       </c>
       <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="str">
-        <f>"13"</f>
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="E12" t="str">
+        <f>"0"</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -692,11 +681,11 @@
         <v>2024</v>
       </c>
       <c r="D13">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="str">
-        <f>"40"</f>
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="E13" t="str">
+        <f>"0"</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -710,11 +699,11 @@
         <v>2024</v>
       </c>
       <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="str">
-        <f>"75"</f>
-        <v>75</v>
+        <v>10</v>
+      </c>
+      <c r="E14" t="str">
+        <f>"14"</f>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -728,11 +717,11 @@
         <v>2024</v>
       </c>
       <c r="D15">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="str">
-        <f>"31"</f>
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="E15" t="str">
+        <f>"7"</f>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -746,11 +735,11 @@
         <v>2024</v>
       </c>
       <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" t="str">
+        <f>"9"</f>
         <v>9</v>
-      </c>
-      <c r="E16" s="2" t="str">
-        <f>"61"</f>
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -764,9 +753,9 @@
         <v>2024</v>
       </c>
       <c r="D17">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E17" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
@@ -782,11 +771,11 @@
         <v>2024</v>
       </c>
       <c r="D18">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="str">
-        <f>"947"</f>
-        <v>947</v>
+        <v>10</v>
+      </c>
+      <c r="E18" t="str">
+        <f>"1,180"</f>
+        <v>1,180</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -800,11 +789,11 @@
         <v>2024</v>
       </c>
       <c r="D19">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="str">
-        <f>"441"</f>
-        <v>441</v>
+        <v>10</v>
+      </c>
+      <c r="E19" t="str">
+        <f>"457"</f>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -818,11 +807,11 @@
         <v>2024</v>
       </c>
       <c r="D20">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2" t="str">
-        <f>"91"</f>
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="E20" t="str">
+        <f>"134"</f>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -836,11 +825,11 @@
         <v>2024</v>
       </c>
       <c r="D21">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2" t="str">
-        <f>"238"</f>
-        <v>238</v>
+        <v>10</v>
+      </c>
+      <c r="E21" t="str">
+        <f>"244"</f>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -854,11 +843,11 @@
         <v>2024</v>
       </c>
       <c r="D22">
-        <v>9</v>
-      </c>
-      <c r="E22" s="2" t="str">
-        <f>"111"</f>
-        <v>111</v>
+        <v>10</v>
+      </c>
+      <c r="E22" t="str">
+        <f>"79"</f>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -872,11 +861,11 @@
         <v>2024</v>
       </c>
       <c r="D23">
-        <v>9</v>
-      </c>
-      <c r="E23" s="3" t="str">
-        <f>"0.206349"</f>
-        <v>0.206349</v>
+        <v>10</v>
+      </c>
+      <c r="E23" t="str">
+        <f>"0.293217"</f>
+        <v>0.293217</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -890,11 +879,11 @@
         <v>2024</v>
       </c>
       <c r="D24">
-        <v>9</v>
-      </c>
-      <c r="E24" s="3" t="str">
-        <f>"0.539683"</f>
-        <v>0.539683</v>
+        <v>10</v>
+      </c>
+      <c r="E24" t="str">
+        <f>"0.533917"</f>
+        <v>0.533917</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -908,11 +897,11 @@
         <v>2024</v>
       </c>
       <c r="D25">
-        <v>9</v>
-      </c>
-      <c r="E25" s="3" t="str">
-        <f>"0.251701"</f>
-        <v>0.251701</v>
+        <v>10</v>
+      </c>
+      <c r="E25" t="str">
+        <f>"0.172867"</f>
+        <v>0.172867</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -926,11 +915,11 @@
         <v>2024</v>
       </c>
       <c r="D26">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="str">
-        <f>"73"</f>
-        <v>73</v>
+        <v>10</v>
+      </c>
+      <c r="E26" t="str">
+        <f>"120"</f>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
@@ -947,11 +936,11 @@
         <v>2024</v>
       </c>
       <c r="D27">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2" t="str">
-        <f>"71"</f>
-        <v>71</v>
+        <v>10</v>
+      </c>
+      <c r="E27" t="str">
+        <f>"100"</f>
+        <v>100</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
@@ -968,11 +957,11 @@
         <v>2024</v>
       </c>
       <c r="D28">
-        <v>9</v>
-      </c>
-      <c r="E28" s="2" t="str">
-        <f>"50"</f>
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="E28" t="str">
+        <f>"88"</f>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -989,9 +978,9 @@
         <v>2024</v>
       </c>
       <c r="D29">
-        <v>9</v>
-      </c>
-      <c r="E29" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E29" t="str">
         <f>"39"</f>
         <v>39</v>
       </c>
@@ -1007,9 +996,9 @@
         <v>2024</v>
       </c>
       <c r="D30">
-        <v>9</v>
-      </c>
-      <c r="E30" s="3" t="str">
+        <v>10</v>
+      </c>
+      <c r="E30" t="str">
         <f>"0.65"</f>
         <v>0.65</v>
       </c>
@@ -1025,9 +1014,9 @@
         <v>2024</v>
       </c>
       <c r="D31">
-        <v>9</v>
-      </c>
-      <c r="E31" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E31" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1043,9 +1032,9 @@
         <v>2024</v>
       </c>
       <c r="D32">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E32" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1061,9 +1050,9 @@
         <v>2024</v>
       </c>
       <c r="D33">
-        <v>9</v>
-      </c>
-      <c r="E33" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E33" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1079,9 +1068,9 @@
         <v>2024</v>
       </c>
       <c r="D34">
-        <v>9</v>
-      </c>
-      <c r="E34" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E34" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1097,9 +1086,9 @@
         <v>2024</v>
       </c>
       <c r="D35">
-        <v>9</v>
-      </c>
-      <c r="E35" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E35" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1115,9 +1104,9 @@
         <v>2024</v>
       </c>
       <c r="D36">
-        <v>9</v>
-      </c>
-      <c r="E36" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E36" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1133,9 +1122,9 @@
         <v>2024</v>
       </c>
       <c r="D37">
-        <v>9</v>
-      </c>
-      <c r="E37" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E37" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1151,9 +1140,9 @@
         <v>2024</v>
       </c>
       <c r="D38">
-        <v>9</v>
-      </c>
-      <c r="E38" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E38" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1169,9 +1158,9 @@
         <v>2024</v>
       </c>
       <c r="D39">
-        <v>9</v>
-      </c>
-      <c r="E39" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E39" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1187,9 +1176,9 @@
         <v>2024</v>
       </c>
       <c r="D40">
-        <v>9</v>
-      </c>
-      <c r="E40" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E40" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1205,9 +1194,9 @@
         <v>2024</v>
       </c>
       <c r="D41">
-        <v>9</v>
-      </c>
-      <c r="E41" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E41" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1223,9 +1212,9 @@
         <v>2024</v>
       </c>
       <c r="D42">
-        <v>9</v>
-      </c>
-      <c r="E42" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E42" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1241,9 +1230,9 @@
         <v>2024</v>
       </c>
       <c r="D43">
-        <v>9</v>
-      </c>
-      <c r="E43" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E43" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1259,9 +1248,9 @@
         <v>2024</v>
       </c>
       <c r="D44">
-        <v>9</v>
-      </c>
-      <c r="E44" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E44" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1277,9 +1266,9 @@
         <v>2024</v>
       </c>
       <c r="D45">
-        <v>9</v>
-      </c>
-      <c r="E45" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E45" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1295,9 +1284,9 @@
         <v>2024</v>
       </c>
       <c r="D46">
-        <v>9</v>
-      </c>
-      <c r="E46" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E46" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1313,9 +1302,9 @@
         <v>2024</v>
       </c>
       <c r="D47">
-        <v>9</v>
-      </c>
-      <c r="E47" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E47" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1331,9 +1320,9 @@
         <v>2024</v>
       </c>
       <c r="D48">
-        <v>9</v>
-      </c>
-      <c r="E48" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E48" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1349,9 +1338,9 @@
         <v>2024</v>
       </c>
       <c r="D49">
-        <v>9</v>
-      </c>
-      <c r="E49" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E49" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1367,9 +1356,9 @@
         <v>2024</v>
       </c>
       <c r="D50">
-        <v>9</v>
-      </c>
-      <c r="E50" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E50" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1385,9 +1374,9 @@
         <v>2024</v>
       </c>
       <c r="D51">
-        <v>9</v>
-      </c>
-      <c r="E51" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E51" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1403,9 +1392,9 @@
         <v>2024</v>
       </c>
       <c r="D52">
-        <v>9</v>
-      </c>
-      <c r="E52" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E52" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1421,9 +1410,9 @@
         <v>2024</v>
       </c>
       <c r="D53">
-        <v>9</v>
-      </c>
-      <c r="E53" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E53" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1439,9 +1428,9 @@
         <v>2024</v>
       </c>
       <c r="D54">
-        <v>9</v>
-      </c>
-      <c r="E54" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E54" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1457,9 +1446,9 @@
         <v>2024</v>
       </c>
       <c r="D55">
-        <v>9</v>
-      </c>
-      <c r="E55" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E55" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1475,11 +1464,11 @@
         <v>2024</v>
       </c>
       <c r="D56">
-        <v>9</v>
-      </c>
-      <c r="E56" s="2" t="str">
-        <f>"23"</f>
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E56" t="str">
+        <f>"27"</f>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1493,11 +1482,11 @@
         <v>2024</v>
       </c>
       <c r="D57">
-        <v>9</v>
-      </c>
-      <c r="E57" s="2" t="str">
-        <f>"23"</f>
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E57" t="str">
+        <f>"27"</f>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1511,11 +1500,11 @@
         <v>2024</v>
       </c>
       <c r="D58">
-        <v>9</v>
-      </c>
-      <c r="E58" s="3" t="str">
-        <f>"94.62"</f>
-        <v>94.62</v>
+        <v>10</v>
+      </c>
+      <c r="E58" t="str">
+        <f>"97.01"</f>
+        <v>97.01</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1529,11 +1518,11 @@
         <v>2024</v>
       </c>
       <c r="D59">
-        <v>9</v>
-      </c>
-      <c r="E59" s="2" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="E59" t="str">
+        <f>"0"</f>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1547,11 +1536,11 @@
         <v>2024</v>
       </c>
       <c r="D60">
-        <v>9</v>
-      </c>
-      <c r="E60" s="3" t="str">
-        <f>"0.13"</f>
-        <v>0.13</v>
+        <v>10</v>
+      </c>
+      <c r="E60" t="str">
+        <f>"0"</f>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1565,11 +1554,11 @@
         <v>2024</v>
       </c>
       <c r="D61">
-        <v>9</v>
-      </c>
-      <c r="E61" s="2" t="str">
-        <f>"111"</f>
-        <v>111</v>
+        <v>10</v>
+      </c>
+      <c r="E61" t="str">
+        <f>"97"</f>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1583,11 +1572,11 @@
         <v>2024</v>
       </c>
       <c r="D62">
-        <v>9</v>
-      </c>
-      <c r="E62" s="3" t="str">
-        <f>"1.89"</f>
-        <v>1.89</v>
+        <v>10</v>
+      </c>
+      <c r="E62" t="str">
+        <f>"1.23"</f>
+        <v>1.23</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1601,11 +1590,11 @@
         <v>2024</v>
       </c>
       <c r="D63">
-        <v>9</v>
-      </c>
-      <c r="E63" s="2" t="str">
-        <f>"20"</f>
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="E63" t="str">
+        <f>"0"</f>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -1619,11 +1608,11 @@
         <v>2024</v>
       </c>
       <c r="D64">
-        <v>9</v>
-      </c>
-      <c r="E64" s="3" t="str">
-        <f>"3.3"</f>
-        <v>3.3</v>
+        <v>10</v>
+      </c>
+      <c r="E64" t="str">
+        <f>"0"</f>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1637,11 +1626,11 @@
         <v>2024</v>
       </c>
       <c r="D65">
-        <v>9</v>
-      </c>
-      <c r="E65" s="2" t="str">
-        <f>"8"</f>
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E65" t="str">
+        <f>"0"</f>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -1655,11 +1644,11 @@
         <v>2024</v>
       </c>
       <c r="D66">
-        <v>9</v>
-      </c>
-      <c r="E66" s="2" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="E66" t="str">
+        <f>"0"</f>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1673,11 +1662,11 @@
         <v>2024</v>
       </c>
       <c r="D67">
-        <v>9</v>
-      </c>
-      <c r="E67" s="2" t="str">
-        <f>"9"</f>
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E67" t="str">
+        <f>"0"</f>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -1691,11 +1680,11 @@
         <v>2024</v>
       </c>
       <c r="D68">
-        <v>9</v>
-      </c>
-      <c r="E68" s="2" t="str">
-        <f>"61"</f>
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="E68" t="str">
+        <f>"59"</f>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -1709,11 +1698,11 @@
         <v>2024</v>
       </c>
       <c r="D69">
-        <v>9</v>
-      </c>
-      <c r="E69" s="2" t="str">
-        <f>"15"</f>
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E69" t="str">
+        <f>"25"</f>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -1727,11 +1716,11 @@
         <v>2024</v>
       </c>
       <c r="D70">
-        <v>9</v>
-      </c>
-      <c r="E70" s="2" t="str">
-        <f>"34"</f>
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="E70" t="str">
+        <f>"13"</f>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -1745,9 +1734,9 @@
         <v>2024</v>
       </c>
       <c r="D71">
-        <v>9</v>
-      </c>
-      <c r="E71" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E71" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -1763,11 +1752,11 @@
         <v>2024</v>
       </c>
       <c r="D72">
-        <v>9</v>
-      </c>
-      <c r="E72" s="2" t="str">
-        <f>"463"</f>
-        <v>463</v>
+        <v>10</v>
+      </c>
+      <c r="E72" t="str">
+        <f>"693"</f>
+        <v>693</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -1781,11 +1770,11 @@
         <v>2024</v>
       </c>
       <c r="D73">
-        <v>9</v>
-      </c>
-      <c r="E73" s="2" t="str">
-        <f>"167"</f>
-        <v>167</v>
+        <v>10</v>
+      </c>
+      <c r="E73" t="str">
+        <f>"194"</f>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -1799,11 +1788,11 @@
         <v>2024</v>
       </c>
       <c r="D74">
-        <v>9</v>
-      </c>
-      <c r="E74" s="2" t="str">
-        <f>"61"</f>
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="E74" t="str">
+        <f>"73"</f>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -1817,11 +1806,11 @@
         <v>2024</v>
       </c>
       <c r="D75">
-        <v>9</v>
-      </c>
-      <c r="E75" s="2" t="str">
-        <f>"65"</f>
-        <v>65</v>
+        <v>10</v>
+      </c>
+      <c r="E75" t="str">
+        <f>"85"</f>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -1835,11 +1824,11 @@
         <v>2024</v>
       </c>
       <c r="D76">
-        <v>9</v>
-      </c>
-      <c r="E76" s="2" t="str">
-        <f>"41"</f>
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="E76" t="str">
+        <f>"36"</f>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -1853,11 +1842,11 @@
         <v>2024</v>
       </c>
       <c r="D77">
-        <v>9</v>
-      </c>
-      <c r="E77" s="3" t="str">
-        <f>"0.365269"</f>
-        <v>0.365269</v>
+        <v>10</v>
+      </c>
+      <c r="E77" t="str">
+        <f>"0.376289"</f>
+        <v>0.376289</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -1871,11 +1860,11 @@
         <v>2024</v>
       </c>
       <c r="D78">
-        <v>9</v>
-      </c>
-      <c r="E78" s="3" t="str">
-        <f>"0.389222"</f>
-        <v>0.389222</v>
+        <v>10</v>
+      </c>
+      <c r="E78" t="str">
+        <f>"0.438144"</f>
+        <v>0.438144</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -1889,11 +1878,11 @@
         <v>2024</v>
       </c>
       <c r="D79">
-        <v>9</v>
-      </c>
-      <c r="E79" s="3" t="str">
-        <f>"0.245509"</f>
-        <v>0.245509</v>
+        <v>10</v>
+      </c>
+      <c r="E79" t="str">
+        <f>"0.185567"</f>
+        <v>0.185567</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -1907,14 +1896,14 @@
         <v>2024</v>
       </c>
       <c r="D80">
+        <v>10</v>
+      </c>
+      <c r="E80" t="str">
+        <f>"54"</f>
+        <v>54</v>
+      </c>
+      <c r="F80" t="s">
         <v>9</v>
-      </c>
-      <c r="E80" s="2" t="str">
-        <f>"21"</f>
-        <v>21</v>
-      </c>
-      <c r="F80" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -1928,14 +1917,14 @@
         <v>2024</v>
       </c>
       <c r="D81">
-        <v>9</v>
-      </c>
-      <c r="E81" s="2" t="str">
-        <f>"18"</f>
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="E81" t="str">
+        <f>"50"</f>
+        <v>50</v>
       </c>
       <c r="F81" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -1949,14 +1938,14 @@
         <v>2024</v>
       </c>
       <c r="D82">
-        <v>9</v>
-      </c>
-      <c r="E82" s="2" t="str">
-        <f>"12"</f>
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E82" t="str">
+        <f>"32"</f>
+        <v>32</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -1970,11 +1959,11 @@
         <v>2024</v>
       </c>
       <c r="D83">
-        <v>9</v>
-      </c>
-      <c r="E83" s="2" t="str">
-        <f>"102"</f>
-        <v>102</v>
+        <v>10</v>
+      </c>
+      <c r="E83" t="str">
+        <f>"101"</f>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -1988,11 +1977,11 @@
         <v>2024</v>
       </c>
       <c r="D84">
-        <v>9</v>
-      </c>
-      <c r="E84" s="3" t="str">
-        <f>"0.86"</f>
-        <v>0.86</v>
+        <v>10</v>
+      </c>
+      <c r="E84" t="str">
+        <f>"0.85"</f>
+        <v>0.85</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2006,9 +1995,9 @@
         <v>2024</v>
       </c>
       <c r="D85">
-        <v>9</v>
-      </c>
-      <c r="E85" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E85" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2024,9 +2013,9 @@
         <v>2024</v>
       </c>
       <c r="D86">
-        <v>9</v>
-      </c>
-      <c r="E86" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E86" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2042,9 +2031,9 @@
         <v>2024</v>
       </c>
       <c r="D87">
-        <v>9</v>
-      </c>
-      <c r="E87" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E87" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2060,9 +2049,9 @@
         <v>2024</v>
       </c>
       <c r="D88">
-        <v>9</v>
-      </c>
-      <c r="E88" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E88" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2078,9 +2067,9 @@
         <v>2024</v>
       </c>
       <c r="D89">
-        <v>9</v>
-      </c>
-      <c r="E89" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E89" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2096,9 +2085,9 @@
         <v>2024</v>
       </c>
       <c r="D90">
-        <v>9</v>
-      </c>
-      <c r="E90" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E90" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2114,9 +2103,9 @@
         <v>2024</v>
       </c>
       <c r="D91">
-        <v>9</v>
-      </c>
-      <c r="E91" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E91" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2132,9 +2121,9 @@
         <v>2024</v>
       </c>
       <c r="D92">
-        <v>9</v>
-      </c>
-      <c r="E92" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E92" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2150,9 +2139,9 @@
         <v>2024</v>
       </c>
       <c r="D93">
-        <v>9</v>
-      </c>
-      <c r="E93" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E93" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2168,9 +2157,9 @@
         <v>2024</v>
       </c>
       <c r="D94">
-        <v>9</v>
-      </c>
-      <c r="E94" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E94" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2186,9 +2175,9 @@
         <v>2024</v>
       </c>
       <c r="D95">
-        <v>9</v>
-      </c>
-      <c r="E95" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E95" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2204,9 +2193,9 @@
         <v>2024</v>
       </c>
       <c r="D96">
-        <v>9</v>
-      </c>
-      <c r="E96" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E96" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2222,9 +2211,9 @@
         <v>2024</v>
       </c>
       <c r="D97">
-        <v>9</v>
-      </c>
-      <c r="E97" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E97" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2240,9 +2229,9 @@
         <v>2024</v>
       </c>
       <c r="D98">
-        <v>9</v>
-      </c>
-      <c r="E98" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E98" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2258,9 +2247,9 @@
         <v>2024</v>
       </c>
       <c r="D99">
-        <v>9</v>
-      </c>
-      <c r="E99" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E99" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2276,9 +2265,9 @@
         <v>2024</v>
       </c>
       <c r="D100">
-        <v>9</v>
-      </c>
-      <c r="E100" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E100" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2294,9 +2283,9 @@
         <v>2024</v>
       </c>
       <c r="D101">
-        <v>9</v>
-      </c>
-      <c r="E101" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E101" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2312,9 +2301,9 @@
         <v>2024</v>
       </c>
       <c r="D102">
-        <v>9</v>
-      </c>
-      <c r="E102" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E102" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2330,9 +2319,9 @@
         <v>2024</v>
       </c>
       <c r="D103">
-        <v>9</v>
-      </c>
-      <c r="E103" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E103" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2348,9 +2337,9 @@
         <v>2024</v>
       </c>
       <c r="D104">
-        <v>9</v>
-      </c>
-      <c r="E104" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E104" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2366,9 +2355,9 @@
         <v>2024</v>
       </c>
       <c r="D105">
-        <v>9</v>
-      </c>
-      <c r="E105" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E105" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2384,9 +2373,9 @@
         <v>2024</v>
       </c>
       <c r="D106">
-        <v>9</v>
-      </c>
-      <c r="E106" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E106" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2402,9 +2391,9 @@
         <v>2024</v>
       </c>
       <c r="D107">
-        <v>9</v>
-      </c>
-      <c r="E107" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E107" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2420,9 +2409,9 @@
         <v>2024</v>
       </c>
       <c r="D108">
-        <v>9</v>
-      </c>
-      <c r="E108" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E108" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2438,9 +2427,9 @@
         <v>2024</v>
       </c>
       <c r="D109">
-        <v>9</v>
-      </c>
-      <c r="E109" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E109" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2450,17 +2439,17 @@
         <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C110">
         <v>2024</v>
       </c>
       <c r="D110">
-        <v>9</v>
-      </c>
-      <c r="E110" s="2" t="str">
-        <f>"9"</f>
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E110" t="str">
+        <f>"2"</f>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -2468,17 +2457,17 @@
         <v>2</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C111">
         <v>2024</v>
       </c>
       <c r="D111">
-        <v>9</v>
-      </c>
-      <c r="E111" s="2" t="str">
-        <f>"9"</f>
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E111" t="str">
+        <f>"2"</f>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -2486,17 +2475,17 @@
         <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C112">
         <v>2024</v>
       </c>
       <c r="D112">
-        <v>9</v>
-      </c>
-      <c r="E112" s="3" t="str">
-        <f>"97.88"</f>
-        <v>97.88</v>
+        <v>10</v>
+      </c>
+      <c r="E112" t="str">
+        <f>"95.79"</f>
+        <v>95.79</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -2504,15 +2493,15 @@
         <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C113">
         <v>2024</v>
       </c>
       <c r="D113">
-        <v>9</v>
-      </c>
-      <c r="E113" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E113" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2522,15 +2511,15 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C114">
         <v>2024</v>
       </c>
       <c r="D114">
-        <v>9</v>
-      </c>
-      <c r="E114" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E114" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2540,17 +2529,17 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C115">
         <v>2024</v>
       </c>
       <c r="D115">
-        <v>9</v>
-      </c>
-      <c r="E115" s="2" t="str">
-        <f>"19"</f>
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="E115" t="str">
+        <f>"10"</f>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -2558,17 +2547,17 @@
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C116">
         <v>2024</v>
       </c>
       <c r="D116">
-        <v>9</v>
-      </c>
-      <c r="E116" s="3" t="str">
-        <f>"2.84"</f>
-        <v>2.84</v>
+        <v>10</v>
+      </c>
+      <c r="E116" t="str">
+        <f>"1.8"</f>
+        <v>1.8</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -2576,15 +2565,15 @@
         <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C117">
         <v>2024</v>
       </c>
       <c r="D117">
-        <v>9</v>
-      </c>
-      <c r="E117" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E117" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2594,15 +2583,15 @@
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C118">
         <v>2024</v>
       </c>
       <c r="D118">
-        <v>9</v>
-      </c>
-      <c r="E118" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E118" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2612,15 +2601,15 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C119">
         <v>2024</v>
       </c>
       <c r="D119">
-        <v>9</v>
-      </c>
-      <c r="E119" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E119" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2630,15 +2619,15 @@
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C120">
         <v>2024</v>
       </c>
       <c r="D120">
-        <v>9</v>
-      </c>
-      <c r="E120" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E120" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2648,15 +2637,15 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C121">
         <v>2024</v>
       </c>
       <c r="D121">
-        <v>9</v>
-      </c>
-      <c r="E121" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E121" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2666,17 +2655,17 @@
         <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C122">
         <v>2024</v>
       </c>
       <c r="D122">
-        <v>9</v>
-      </c>
-      <c r="E122" s="2" t="str">
-        <f>"7"</f>
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E122" t="str">
+        <f>"5"</f>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -2684,15 +2673,15 @@
         <v>14</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C123">
         <v>2024</v>
       </c>
       <c r="D123">
-        <v>9</v>
-      </c>
-      <c r="E123" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E123" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
@@ -2702,17 +2691,17 @@
         <v>15</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C124">
         <v>2024</v>
       </c>
       <c r="D124">
-        <v>9</v>
-      </c>
-      <c r="E124" s="2" t="str">
-        <f>"7"</f>
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E124" t="str">
+        <f>"2"</f>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -2720,15 +2709,15 @@
         <v>16</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C125">
         <v>2024</v>
       </c>
       <c r="D125">
-        <v>9</v>
-      </c>
-      <c r="E125" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E125" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2738,17 +2727,17 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C126">
         <v>2024</v>
       </c>
       <c r="D126">
-        <v>9</v>
-      </c>
-      <c r="E126" s="2" t="str">
-        <f>"460"</f>
-        <v>460</v>
+        <v>10</v>
+      </c>
+      <c r="E126" t="str">
+        <f>"487"</f>
+        <v>487</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -2756,17 +2745,17 @@
         <v>18</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C127">
         <v>2024</v>
       </c>
       <c r="D127">
-        <v>9</v>
-      </c>
-      <c r="E127" s="2" t="str">
-        <f>"191"</f>
-        <v>191</v>
+        <v>10</v>
+      </c>
+      <c r="E127" t="str">
+        <f>"178"</f>
+        <v>178</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -2774,17 +2763,17 @@
         <v>19</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C128">
         <v>2024</v>
       </c>
       <c r="D128">
-        <v>9</v>
-      </c>
-      <c r="E128" s="2" t="str">
-        <f>"45"</f>
-        <v>45</v>
+        <v>10</v>
+      </c>
+      <c r="E128" t="str">
+        <f>"40"</f>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -2792,17 +2781,17 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C129">
         <v>2024</v>
       </c>
       <c r="D129">
-        <v>9</v>
-      </c>
-      <c r="E129" s="2" t="str">
-        <f>"65"</f>
-        <v>65</v>
+        <v>10</v>
+      </c>
+      <c r="E129" t="str">
+        <f>"89"</f>
+        <v>89</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -2810,17 +2799,17 @@
         <v>21</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C130">
         <v>2024</v>
       </c>
       <c r="D130">
-        <v>9</v>
-      </c>
-      <c r="E130" s="2" t="str">
-        <f>"81"</f>
-        <v>81</v>
+        <v>10</v>
+      </c>
+      <c r="E130" t="str">
+        <f>"49"</f>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -2828,17 +2817,17 @@
         <v>22</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C131">
         <v>2024</v>
       </c>
       <c r="D131">
-        <v>9</v>
-      </c>
-      <c r="E131" s="3" t="str">
-        <f>"0.235602"</f>
-        <v>0.235602</v>
+        <v>10</v>
+      </c>
+      <c r="E131" t="str">
+        <f>"0.224719"</f>
+        <v>0.224719</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -2846,17 +2835,17 @@
         <v>23</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C132">
         <v>2024</v>
       </c>
       <c r="D132">
-        <v>9</v>
-      </c>
-      <c r="E132" s="3" t="str">
-        <f>"0.340314"</f>
-        <v>0.340314</v>
+        <v>10</v>
+      </c>
+      <c r="E132" t="str">
+        <f>"0.5"</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -2864,17 +2853,17 @@
         <v>24</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C133">
         <v>2024</v>
       </c>
       <c r="D133">
-        <v>9</v>
-      </c>
-      <c r="E133" s="3" t="str">
-        <f>"0.424084"</f>
-        <v>0.424084</v>
+        <v>10</v>
+      </c>
+      <c r="E133" t="str">
+        <f>"0.275281"</f>
+        <v>0.275281</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -2882,17 +2871,17 @@
         <v>25</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C134">
         <v>2024</v>
       </c>
       <c r="D134">
-        <v>9</v>
-      </c>
-      <c r="E134" s="2" t="str">
-        <f>"43"</f>
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="E134" t="str">
+        <f>"56"</f>
+        <v>56</v>
       </c>
       <c r="F134" t="s">
         <v>8</v>
@@ -2903,20 +2892,20 @@
         <v>26</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C135">
         <v>2024</v>
       </c>
       <c r="D135">
-        <v>9</v>
-      </c>
-      <c r="E135" s="2" t="str">
-        <f>"8"</f>
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E135" t="str">
+        <f>"41"</f>
+        <v>41</v>
       </c>
       <c r="F135" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -2924,20 +2913,20 @@
         <v>27</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C136">
         <v>2024</v>
       </c>
       <c r="D136">
-        <v>9</v>
-      </c>
-      <c r="E136" s="2" t="str">
-        <f>"6"</f>
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="E136" t="str">
+        <f>"19"</f>
+        <v>19</v>
       </c>
       <c r="F136" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -2945,17 +2934,17 @@
         <v>28</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C137">
         <v>2024</v>
       </c>
       <c r="D137">
-        <v>9</v>
-      </c>
-      <c r="E137" s="2" t="str">
-        <f>"88"</f>
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="E137" t="str">
+        <f>"86"</f>
+        <v>86</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -2963,17 +2952,17 @@
         <v>29</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C138">
         <v>2024</v>
       </c>
       <c r="D138">
-        <v>9</v>
-      </c>
-      <c r="E138" s="3" t="str">
-        <f>"0.88"</f>
-        <v>0.88</v>
+        <v>10</v>
+      </c>
+      <c r="E138" t="str">
+        <f>"0.86"</f>
+        <v>0.86</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -2981,15 +2970,15 @@
         <v>30</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C139">
         <v>2024</v>
       </c>
       <c r="D139">
-        <v>9</v>
-      </c>
-      <c r="E139" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E139" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -2999,15 +2988,15 @@
         <v>31</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C140">
         <v>2024</v>
       </c>
       <c r="D140">
-        <v>9</v>
-      </c>
-      <c r="E140" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E140" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3017,15 +3006,15 @@
         <v>32</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C141">
         <v>2024</v>
       </c>
       <c r="D141">
-        <v>9</v>
-      </c>
-      <c r="E141" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E141" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3035,15 +3024,15 @@
         <v>33</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C142">
         <v>2024</v>
       </c>
       <c r="D142">
-        <v>9</v>
-      </c>
-      <c r="E142" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E142" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3053,15 +3042,15 @@
         <v>34</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C143">
         <v>2024</v>
       </c>
       <c r="D143">
-        <v>9</v>
-      </c>
-      <c r="E143" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E143" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3071,15 +3060,15 @@
         <v>35</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C144">
         <v>2024</v>
       </c>
       <c r="D144">
-        <v>9</v>
-      </c>
-      <c r="E144" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E144" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3089,15 +3078,15 @@
         <v>36</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C145">
         <v>2024</v>
       </c>
       <c r="D145">
-        <v>9</v>
-      </c>
-      <c r="E145" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E145" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3107,15 +3096,15 @@
         <v>37</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C146">
         <v>2024</v>
       </c>
       <c r="D146">
-        <v>9</v>
-      </c>
-      <c r="E146" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E146" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3125,15 +3114,15 @@
         <v>38</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C147">
         <v>2024</v>
       </c>
       <c r="D147">
-        <v>9</v>
-      </c>
-      <c r="E147" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E147" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3143,15 +3132,15 @@
         <v>39</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C148">
         <v>2024</v>
       </c>
       <c r="D148">
-        <v>9</v>
-      </c>
-      <c r="E148" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E148" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3161,15 +3150,15 @@
         <v>40</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C149">
         <v>2024</v>
       </c>
       <c r="D149">
-        <v>9</v>
-      </c>
-      <c r="E149" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E149" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3179,15 +3168,15 @@
         <v>41</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C150">
         <v>2024</v>
       </c>
       <c r="D150">
-        <v>9</v>
-      </c>
-      <c r="E150" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E150" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3197,15 +3186,15 @@
         <v>42</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C151">
         <v>2024</v>
       </c>
       <c r="D151">
-        <v>9</v>
-      </c>
-      <c r="E151" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E151" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3215,15 +3204,15 @@
         <v>43</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C152">
         <v>2024</v>
       </c>
       <c r="D152">
-        <v>9</v>
-      </c>
-      <c r="E152" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E152" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3233,15 +3222,15 @@
         <v>44</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C153">
         <v>2024</v>
       </c>
       <c r="D153">
-        <v>9</v>
-      </c>
-      <c r="E153" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E153" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3251,15 +3240,15 @@
         <v>45</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C154">
         <v>2024</v>
       </c>
       <c r="D154">
-        <v>9</v>
-      </c>
-      <c r="E154" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E154" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3269,15 +3258,15 @@
         <v>46</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C155">
         <v>2024</v>
       </c>
       <c r="D155">
-        <v>9</v>
-      </c>
-      <c r="E155" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E155" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3287,15 +3276,15 @@
         <v>47</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C156">
         <v>2024</v>
       </c>
       <c r="D156">
-        <v>9</v>
-      </c>
-      <c r="E156" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E156" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3305,15 +3294,15 @@
         <v>48</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C157">
         <v>2024</v>
       </c>
       <c r="D157">
-        <v>9</v>
-      </c>
-      <c r="E157" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E157" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3323,15 +3312,15 @@
         <v>49</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C158">
         <v>2024</v>
       </c>
       <c r="D158">
-        <v>9</v>
-      </c>
-      <c r="E158" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E158" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3341,15 +3330,15 @@
         <v>50</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C159">
         <v>2024</v>
       </c>
       <c r="D159">
-        <v>9</v>
-      </c>
-      <c r="E159" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E159" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3359,15 +3348,15 @@
         <v>51</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C160">
         <v>2024</v>
       </c>
       <c r="D160">
-        <v>9</v>
-      </c>
-      <c r="E160" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E160" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3377,15 +3366,15 @@
         <v>52</v>
       </c>
       <c r="B161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C161">
         <v>2024</v>
       </c>
       <c r="D161">
-        <v>9</v>
-      </c>
-      <c r="E161" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E161" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3395,15 +3384,15 @@
         <v>53</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C162">
         <v>2024</v>
       </c>
       <c r="D162">
-        <v>9</v>
-      </c>
-      <c r="E162" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E162" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3413,15 +3402,15 @@
         <v>54</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C163">
         <v>2024</v>
       </c>
       <c r="D163">
-        <v>9</v>
-      </c>
-      <c r="E163" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E163" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3431,17 +3420,17 @@
         <v>1</v>
       </c>
       <c r="B164" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C164">
         <v>2024</v>
       </c>
       <c r="D164">
-        <v>9</v>
-      </c>
-      <c r="E164" s="2" t="str">
-        <f>"29"</f>
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="E164" t="str">
+        <f>"23"</f>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -3449,17 +3438,17 @@
         <v>2</v>
       </c>
       <c r="B165" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C165">
         <v>2024</v>
       </c>
       <c r="D165">
-        <v>9</v>
-      </c>
-      <c r="E165" s="2" t="str">
-        <f>"26"</f>
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="E165" t="str">
+        <f>"20"</f>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -3467,17 +3456,17 @@
         <v>3</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C166">
         <v>2024</v>
       </c>
       <c r="D166">
-        <v>9</v>
-      </c>
-      <c r="E166" s="3" t="str">
-        <f>"94.58"</f>
-        <v>94.58</v>
+        <v>10</v>
+      </c>
+      <c r="E166" t="str">
+        <f>"94.99"</f>
+        <v>94.99</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -3485,17 +3474,17 @@
         <v>4</v>
       </c>
       <c r="B167" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C167">
         <v>2024</v>
       </c>
       <c r="D167">
-        <v>9</v>
-      </c>
-      <c r="E167" s="2" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="E167" t="str">
+        <f>"4"</f>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -3503,17 +3492,17 @@
         <v>5</v>
       </c>
       <c r="B168" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C168">
         <v>2024</v>
       </c>
       <c r="D168">
-        <v>9</v>
-      </c>
-      <c r="E168" s="3" t="str">
-        <f>"0.1"</f>
-        <v>0.1</v>
+        <v>10</v>
+      </c>
+      <c r="E168" t="str">
+        <f>"0.17"</f>
+        <v>0.17</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -3521,17 +3510,17 @@
         <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C169">
         <v>2024</v>
       </c>
       <c r="D169">
-        <v>9</v>
-      </c>
-      <c r="E169" s="2" t="str">
-        <f>"115"</f>
-        <v>115</v>
+        <v>10</v>
+      </c>
+      <c r="E169" t="str">
+        <f>"93"</f>
+        <v>93</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -3539,17 +3528,17 @@
         <v>7</v>
       </c>
       <c r="B170" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C170">
         <v>2024</v>
       </c>
       <c r="D170">
-        <v>9</v>
-      </c>
-      <c r="E170" s="3" t="str">
-        <f>"2.48"</f>
-        <v>2.48</v>
+        <v>10</v>
+      </c>
+      <c r="E170" t="str">
+        <f>"2.66"</f>
+        <v>2.66</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -3557,17 +3546,17 @@
         <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C171">
         <v>2024</v>
       </c>
       <c r="D171">
-        <v>9</v>
-      </c>
-      <c r="E171" s="2" t="str">
-        <f>"30"</f>
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="E171" t="str">
+        <f>"29"</f>
+        <v>29</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -3575,17 +3564,17 @@
         <v>9</v>
       </c>
       <c r="B172" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C172">
         <v>2024</v>
       </c>
       <c r="D172">
-        <v>9</v>
-      </c>
-      <c r="E172" s="3" t="str">
-        <f>"1.85"</f>
-        <v>1.85</v>
+        <v>10</v>
+      </c>
+      <c r="E172" t="str">
+        <f>"4.04"</f>
+        <v>4.04</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -3593,17 +3582,17 @@
         <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C173">
         <v>2024</v>
       </c>
       <c r="D173">
-        <v>9</v>
-      </c>
-      <c r="E173" s="2" t="str">
-        <f>"9"</f>
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E173" t="str">
+        <f>"15"</f>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -3611,17 +3600,17 @@
         <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C174">
         <v>2024</v>
       </c>
       <c r="D174">
-        <v>9</v>
-      </c>
-      <c r="E174" s="2" t="str">
-        <f>"3"</f>
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="E174" t="str">
+        <f>"7"</f>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -3629,17 +3618,17 @@
         <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C175">
         <v>2024</v>
       </c>
       <c r="D175">
-        <v>9</v>
-      </c>
-      <c r="E175" s="2" t="str">
-        <f>"14"</f>
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="E175" t="str">
+        <f>"16"</f>
+        <v>16</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -3647,17 +3636,17 @@
         <v>13</v>
       </c>
       <c r="B176" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C176">
         <v>2024</v>
       </c>
       <c r="D176">
-        <v>9</v>
-      </c>
-      <c r="E176" s="2" t="str">
-        <f>"74"</f>
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="E176" t="str">
+        <f>"49"</f>
+        <v>49</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -3665,17 +3654,17 @@
         <v>14</v>
       </c>
       <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177">
+        <v>2024</v>
+      </c>
+      <c r="D177">
+        <v>10</v>
+      </c>
+      <c r="E177" t="str">
+        <f>"14"</f>
         <v>14</v>
-      </c>
-      <c r="C177">
-        <v>2024</v>
-      </c>
-      <c r="D177">
-        <v>9</v>
-      </c>
-      <c r="E177" s="2" t="str">
-        <f>"10"</f>
-        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -3683,17 +3672,17 @@
         <v>15</v>
       </c>
       <c r="B178" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C178">
         <v>2024</v>
       </c>
       <c r="D178">
-        <v>9</v>
-      </c>
-      <c r="E178" s="2" t="str">
-        <f>"43"</f>
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="E178" t="str">
+        <f>"34"</f>
+        <v>34</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -3701,17 +3690,17 @@
         <v>16</v>
       </c>
       <c r="B179" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C179">
         <v>2024</v>
       </c>
       <c r="D179">
-        <v>9</v>
-      </c>
-      <c r="E179" s="2" t="str">
-        <f>"0"</f>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E179" t="str">
+        <f>"18"</f>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -3719,17 +3708,17 @@
         <v>17</v>
       </c>
       <c r="B180" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C180">
         <v>2024</v>
       </c>
       <c r="D180">
-        <v>9</v>
-      </c>
-      <c r="E180" s="2" t="str">
-        <f>"461"</f>
-        <v>461</v>
+        <v>10</v>
+      </c>
+      <c r="E180" t="str">
+        <f>"643"</f>
+        <v>643</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -3737,17 +3726,17 @@
         <v>18</v>
       </c>
       <c r="B181" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C181">
         <v>2024</v>
       </c>
       <c r="D181">
-        <v>9</v>
-      </c>
-      <c r="E181" s="2" t="str">
-        <f>"202"</f>
-        <v>202</v>
+        <v>10</v>
+      </c>
+      <c r="E181" t="str">
+        <f>"252"</f>
+        <v>252</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -3755,17 +3744,17 @@
         <v>19</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C182">
         <v>2024</v>
       </c>
       <c r="D182">
-        <v>9</v>
-      </c>
-      <c r="E182" s="2" t="str">
-        <f>"51"</f>
-        <v>51</v>
+        <v>10</v>
+      </c>
+      <c r="E182" t="str">
+        <f>"68"</f>
+        <v>68</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -3773,17 +3762,17 @@
         <v>20</v>
       </c>
       <c r="B183" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C183">
         <v>2024</v>
       </c>
       <c r="D183">
-        <v>9</v>
-      </c>
-      <c r="E183" s="2" t="str">
-        <f>"85"</f>
-        <v>85</v>
+        <v>10</v>
+      </c>
+      <c r="E183" t="str">
+        <f>"128"</f>
+        <v>128</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -3791,17 +3780,17 @@
         <v>21</v>
       </c>
       <c r="B184" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C184">
         <v>2024</v>
       </c>
       <c r="D184">
-        <v>9</v>
-      </c>
-      <c r="E184" s="2" t="str">
-        <f>"66"</f>
-        <v>66</v>
+        <v>10</v>
+      </c>
+      <c r="E184" t="str">
+        <f>"56"</f>
+        <v>56</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -3809,17 +3798,17 @@
         <v>22</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C185">
         <v>2024</v>
       </c>
       <c r="D185">
-        <v>9</v>
-      </c>
-      <c r="E185" s="3" t="str">
-        <f>"0.252475"</f>
-        <v>0.252475</v>
+        <v>10</v>
+      </c>
+      <c r="E185" t="str">
+        <f>"0.269841"</f>
+        <v>0.269841</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -3827,17 +3816,17 @@
         <v>23</v>
       </c>
       <c r="B186" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C186">
         <v>2024</v>
       </c>
       <c r="D186">
-        <v>9</v>
-      </c>
-      <c r="E186" s="3" t="str">
-        <f>"0.420792"</f>
-        <v>0.420792</v>
+        <v>10</v>
+      </c>
+      <c r="E186" t="str">
+        <f>"0.507937"</f>
+        <v>0.507937</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -3845,17 +3834,17 @@
         <v>24</v>
       </c>
       <c r="B187" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C187">
         <v>2024</v>
       </c>
       <c r="D187">
-        <v>9</v>
-      </c>
-      <c r="E187" s="3" t="str">
-        <f>"0.326733"</f>
-        <v>0.326733</v>
+        <v>10</v>
+      </c>
+      <c r="E187" t="str">
+        <f>"0.222222"</f>
+        <v>0.222222</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -3863,20 +3852,20 @@
         <v>25</v>
       </c>
       <c r="B188" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C188">
         <v>2024</v>
       </c>
       <c r="D188">
-        <v>9</v>
-      </c>
-      <c r="E188" s="2" t="str">
-        <f>"31"</f>
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="E188" t="str">
+        <f>"59"</f>
+        <v>59</v>
       </c>
       <c r="F188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -3884,20 +3873,20 @@
         <v>26</v>
       </c>
       <c r="B189" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C189">
         <v>2024</v>
       </c>
       <c r="D189">
+        <v>10</v>
+      </c>
+      <c r="E189" t="str">
+        <f>"52"</f>
+        <v>52</v>
+      </c>
+      <c r="F189" t="s">
         <v>9</v>
-      </c>
-      <c r="E189" s="2" t="str">
-        <f>"30"</f>
-        <v>30</v>
-      </c>
-      <c r="F189" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -3905,20 +3894,20 @@
         <v>27</v>
       </c>
       <c r="B190" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C190">
         <v>2024</v>
       </c>
       <c r="D190">
-        <v>9</v>
-      </c>
-      <c r="E190" s="2" t="str">
-        <f>"16"</f>
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E190" t="str">
+        <f>"48"</f>
+        <v>48</v>
       </c>
       <c r="F190" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -3926,17 +3915,17 @@
         <v>28</v>
       </c>
       <c r="B191" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C191">
         <v>2024</v>
       </c>
       <c r="D191">
-        <v>9</v>
-      </c>
-      <c r="E191" s="2" t="str">
-        <f>"78"</f>
-        <v>78</v>
+        <v>10</v>
+      </c>
+      <c r="E191" t="str">
+        <f>"76"</f>
+        <v>76</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -3944,17 +3933,17 @@
         <v>29</v>
       </c>
       <c r="B192" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C192">
         <v>2024</v>
       </c>
       <c r="D192">
-        <v>9</v>
-      </c>
-      <c r="E192" s="3" t="str">
-        <f>"0.84"</f>
-        <v>0.84</v>
+        <v>10</v>
+      </c>
+      <c r="E192" t="str">
+        <f>"0.81"</f>
+        <v>0.81</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -3962,15 +3951,15 @@
         <v>30</v>
       </c>
       <c r="B193" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C193">
         <v>2024</v>
       </c>
       <c r="D193">
-        <v>9</v>
-      </c>
-      <c r="E193" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E193" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3980,15 +3969,15 @@
         <v>31</v>
       </c>
       <c r="B194" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C194">
         <v>2024</v>
       </c>
       <c r="D194">
-        <v>9</v>
-      </c>
-      <c r="E194" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E194" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -3998,15 +3987,15 @@
         <v>32</v>
       </c>
       <c r="B195" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C195">
         <v>2024</v>
       </c>
       <c r="D195">
-        <v>9</v>
-      </c>
-      <c r="E195" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E195" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4016,15 +4005,15 @@
         <v>33</v>
       </c>
       <c r="B196" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C196">
         <v>2024</v>
       </c>
       <c r="D196">
-        <v>9</v>
-      </c>
-      <c r="E196" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E196" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4034,15 +4023,15 @@
         <v>34</v>
       </c>
       <c r="B197" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C197">
         <v>2024</v>
       </c>
       <c r="D197">
-        <v>9</v>
-      </c>
-      <c r="E197" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E197" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4052,15 +4041,15 @@
         <v>35</v>
       </c>
       <c r="B198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C198">
         <v>2024</v>
       </c>
       <c r="D198">
-        <v>9</v>
-      </c>
-      <c r="E198" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E198" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4070,15 +4059,15 @@
         <v>36</v>
       </c>
       <c r="B199" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C199">
         <v>2024</v>
       </c>
       <c r="D199">
-        <v>9</v>
-      </c>
-      <c r="E199" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E199" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4088,15 +4077,15 @@
         <v>37</v>
       </c>
       <c r="B200" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C200">
         <v>2024</v>
       </c>
       <c r="D200">
-        <v>9</v>
-      </c>
-      <c r="E200" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E200" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4106,15 +4095,15 @@
         <v>38</v>
       </c>
       <c r="B201" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C201">
         <v>2024</v>
       </c>
       <c r="D201">
-        <v>9</v>
-      </c>
-      <c r="E201" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E201" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4124,15 +4113,15 @@
         <v>39</v>
       </c>
       <c r="B202" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C202">
         <v>2024</v>
       </c>
       <c r="D202">
-        <v>9</v>
-      </c>
-      <c r="E202" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E202" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4142,15 +4131,15 @@
         <v>40</v>
       </c>
       <c r="B203" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C203">
         <v>2024</v>
       </c>
       <c r="D203">
-        <v>9</v>
-      </c>
-      <c r="E203" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E203" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4160,15 +4149,15 @@
         <v>41</v>
       </c>
       <c r="B204" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C204">
         <v>2024</v>
       </c>
       <c r="D204">
-        <v>9</v>
-      </c>
-      <c r="E204" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E204" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4178,15 +4167,15 @@
         <v>42</v>
       </c>
       <c r="B205" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C205">
         <v>2024</v>
       </c>
       <c r="D205">
-        <v>9</v>
-      </c>
-      <c r="E205" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E205" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4196,15 +4185,15 @@
         <v>43</v>
       </c>
       <c r="B206" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C206">
         <v>2024</v>
       </c>
       <c r="D206">
-        <v>9</v>
-      </c>
-      <c r="E206" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E206" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4214,15 +4203,15 @@
         <v>44</v>
       </c>
       <c r="B207" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C207">
         <v>2024</v>
       </c>
       <c r="D207">
-        <v>9</v>
-      </c>
-      <c r="E207" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E207" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4232,15 +4221,15 @@
         <v>45</v>
       </c>
       <c r="B208" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C208">
         <v>2024</v>
       </c>
       <c r="D208">
-        <v>9</v>
-      </c>
-      <c r="E208" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E208" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4250,15 +4239,15 @@
         <v>46</v>
       </c>
       <c r="B209" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C209">
         <v>2024</v>
       </c>
       <c r="D209">
-        <v>9</v>
-      </c>
-      <c r="E209" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E209" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4268,15 +4257,15 @@
         <v>47</v>
       </c>
       <c r="B210" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C210">
         <v>2024</v>
       </c>
       <c r="D210">
-        <v>9</v>
-      </c>
-      <c r="E210" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E210" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4286,15 +4275,15 @@
         <v>48</v>
       </c>
       <c r="B211" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C211">
         <v>2024</v>
       </c>
       <c r="D211">
-        <v>9</v>
-      </c>
-      <c r="E211" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E211" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4304,15 +4293,15 @@
         <v>49</v>
       </c>
       <c r="B212" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C212">
         <v>2024</v>
       </c>
       <c r="D212">
-        <v>9</v>
-      </c>
-      <c r="E212" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E212" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4322,15 +4311,15 @@
         <v>50</v>
       </c>
       <c r="B213" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C213">
         <v>2024</v>
       </c>
       <c r="D213">
-        <v>9</v>
-      </c>
-      <c r="E213" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E213" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4340,15 +4329,15 @@
         <v>51</v>
       </c>
       <c r="B214" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C214">
         <v>2024</v>
       </c>
       <c r="D214">
-        <v>9</v>
-      </c>
-      <c r="E214" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E214" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4358,15 +4347,15 @@
         <v>52</v>
       </c>
       <c r="B215" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C215">
         <v>2024</v>
       </c>
       <c r="D215">
-        <v>9</v>
-      </c>
-      <c r="E215" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E215" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4376,15 +4365,15 @@
         <v>53</v>
       </c>
       <c r="B216" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C216">
         <v>2024</v>
       </c>
       <c r="D216">
-        <v>9</v>
-      </c>
-      <c r="E216" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E216" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4394,15 +4383,15 @@
         <v>54</v>
       </c>
       <c r="B217" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C217">
         <v>2024</v>
       </c>
       <c r="D217">
-        <v>9</v>
-      </c>
-      <c r="E217" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E217" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4412,17 +4401,17 @@
         <v>1</v>
       </c>
       <c r="B218" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C218">
         <v>2024</v>
       </c>
       <c r="D218">
-        <v>9</v>
-      </c>
-      <c r="E218" s="2" t="str">
-        <f>"47"</f>
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="E218" t="str">
+        <f>"32"</f>
+        <v>32</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -4430,17 +4419,17 @@
         <v>2</v>
       </c>
       <c r="B219" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C219">
         <v>2024</v>
       </c>
       <c r="D219">
-        <v>9</v>
-      </c>
-      <c r="E219" s="2" t="str">
-        <f>"47"</f>
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="E219" t="str">
+        <f>"31"</f>
+        <v>31</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -4448,17 +4437,17 @@
         <v>3</v>
       </c>
       <c r="B220" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C220">
         <v>2024</v>
       </c>
       <c r="D220">
-        <v>9</v>
-      </c>
-      <c r="E220" s="3" t="str">
-        <f>"97.33"</f>
-        <v>97.33</v>
+        <v>10</v>
+      </c>
+      <c r="E220" t="str">
+        <f>"97.92"</f>
+        <v>97.92</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -4466,15 +4455,15 @@
         <v>4</v>
       </c>
       <c r="B221" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C221">
         <v>2024</v>
       </c>
       <c r="D221">
-        <v>9</v>
-      </c>
-      <c r="E221" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E221" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4484,15 +4473,15 @@
         <v>5</v>
       </c>
       <c r="B222" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C222">
         <v>2024</v>
       </c>
       <c r="D222">
-        <v>9</v>
-      </c>
-      <c r="E222" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E222" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4502,17 +4491,17 @@
         <v>6</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C223">
         <v>2024</v>
       </c>
       <c r="D223">
-        <v>9</v>
-      </c>
-      <c r="E223" s="2" t="str">
-        <f>"152"</f>
-        <v>152</v>
+        <v>10</v>
+      </c>
+      <c r="E223" t="str">
+        <f>"69"</f>
+        <v>69</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -4520,17 +4509,17 @@
         <v>7</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C224">
         <v>2024</v>
       </c>
       <c r="D224">
-        <v>9</v>
-      </c>
-      <c r="E224" s="3" t="str">
-        <f>"2.66"</f>
-        <v>2.66</v>
+        <v>10</v>
+      </c>
+      <c r="E224" t="str">
+        <f>"2.04"</f>
+        <v>2.04</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -4538,15 +4527,15 @@
         <v>8</v>
       </c>
       <c r="B225" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C225">
         <v>2024</v>
       </c>
       <c r="D225">
-        <v>9</v>
-      </c>
-      <c r="E225" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E225" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4556,15 +4545,15 @@
         <v>9</v>
       </c>
       <c r="B226" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C226">
         <v>2024</v>
       </c>
       <c r="D226">
-        <v>9</v>
-      </c>
-      <c r="E226" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E226" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4574,15 +4563,15 @@
         <v>10</v>
       </c>
       <c r="B227" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C227">
         <v>2024</v>
       </c>
       <c r="D227">
-        <v>9</v>
-      </c>
-      <c r="E227" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E227" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4592,15 +4581,15 @@
         <v>11</v>
       </c>
       <c r="B228" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C228">
         <v>2024</v>
       </c>
       <c r="D228">
-        <v>9</v>
-      </c>
-      <c r="E228" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E228" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4610,15 +4599,15 @@
         <v>12</v>
       </c>
       <c r="B229" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C229">
         <v>2024</v>
       </c>
       <c r="D229">
-        <v>9</v>
-      </c>
-      <c r="E229" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E229" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4628,17 +4617,17 @@
         <v>13</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C230">
         <v>2024</v>
       </c>
       <c r="D230">
-        <v>9</v>
-      </c>
-      <c r="E230" s="2" t="str">
-        <f>"89"</f>
-        <v>89</v>
+        <v>10</v>
+      </c>
+      <c r="E230" t="str">
+        <f>"32"</f>
+        <v>32</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -4646,17 +4635,17 @@
         <v>14</v>
       </c>
       <c r="B231" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C231">
         <v>2024</v>
       </c>
       <c r="D231">
-        <v>9</v>
-      </c>
-      <c r="E231" s="2" t="str">
-        <f>"23"</f>
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="E231" t="str">
+        <f>"16"</f>
+        <v>16</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -4664,17 +4653,17 @@
         <v>15</v>
       </c>
       <c r="B232" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C232">
         <v>2024</v>
       </c>
       <c r="D232">
-        <v>9</v>
-      </c>
-      <c r="E232" s="2" t="str">
-        <f>"40"</f>
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="E232" t="str">
+        <f>"22"</f>
+        <v>22</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
@@ -4682,15 +4671,15 @@
         <v>16</v>
       </c>
       <c r="B233" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C233">
         <v>2024</v>
       </c>
       <c r="D233">
-        <v>9</v>
-      </c>
-      <c r="E233" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E233" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4700,17 +4689,17 @@
         <v>17</v>
       </c>
       <c r="B234" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C234">
         <v>2024</v>
       </c>
       <c r="D234">
-        <v>9</v>
-      </c>
-      <c r="E234" s="2" t="str">
-        <f>"1,180"</f>
-        <v>1,180</v>
+        <v>10</v>
+      </c>
+      <c r="E234" t="str">
+        <f>"1,118"</f>
+        <v>1,118</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -4718,17 +4707,17 @@
         <v>18</v>
       </c>
       <c r="B235" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C235">
         <v>2024</v>
       </c>
       <c r="D235">
-        <v>9</v>
-      </c>
-      <c r="E235" s="2" t="str">
-        <f>"781"</f>
-        <v>781</v>
+        <v>10</v>
+      </c>
+      <c r="E235" t="str">
+        <f>"678"</f>
+        <v>678</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
@@ -4736,17 +4725,17 @@
         <v>19</v>
       </c>
       <c r="B236" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C236">
         <v>2024</v>
       </c>
       <c r="D236">
-        <v>9</v>
-      </c>
-      <c r="E236" s="2" t="str">
-        <f>"141"</f>
-        <v>141</v>
+        <v>10</v>
+      </c>
+      <c r="E236" t="str">
+        <f>"142"</f>
+        <v>142</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -4754,17 +4743,17 @@
         <v>20</v>
       </c>
       <c r="B237" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C237">
         <v>2024</v>
       </c>
       <c r="D237">
-        <v>9</v>
-      </c>
-      <c r="E237" s="2" t="str">
-        <f>"503"</f>
-        <v>503</v>
+        <v>10</v>
+      </c>
+      <c r="E237" t="str">
+        <f>"419"</f>
+        <v>419</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -4772,17 +4761,17 @@
         <v>21</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C238">
         <v>2024</v>
       </c>
       <c r="D238">
-        <v>9</v>
-      </c>
-      <c r="E238" s="2" t="str">
-        <f>"137"</f>
-        <v>137</v>
+        <v>10</v>
+      </c>
+      <c r="E238" t="str">
+        <f>"117"</f>
+        <v>117</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -4790,17 +4779,17 @@
         <v>22</v>
       </c>
       <c r="B239" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C239">
         <v>2024</v>
       </c>
       <c r="D239">
-        <v>9</v>
-      </c>
-      <c r="E239" s="3" t="str">
-        <f>"0.180538"</f>
-        <v>0.180538</v>
+        <v>10</v>
+      </c>
+      <c r="E239" t="str">
+        <f>"0.20944"</f>
+        <v>0.20944</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
@@ -4808,17 +4797,17 @@
         <v>23</v>
       </c>
       <c r="B240" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C240">
         <v>2024</v>
       </c>
       <c r="D240">
-        <v>9</v>
-      </c>
-      <c r="E240" s="3" t="str">
-        <f>"0.644046"</f>
-        <v>0.644046</v>
+        <v>10</v>
+      </c>
+      <c r="E240" t="str">
+        <f>"0.617994"</f>
+        <v>0.617994</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -4826,17 +4815,17 @@
         <v>24</v>
       </c>
       <c r="B241" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C241">
         <v>2024</v>
       </c>
       <c r="D241">
-        <v>9</v>
-      </c>
-      <c r="E241" s="3" t="str">
-        <f>"0.175416"</f>
-        <v>0.175416</v>
+        <v>10</v>
+      </c>
+      <c r="E241" t="str">
+        <f>"0.172566"</f>
+        <v>0.172566</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -4844,20 +4833,20 @@
         <v>25</v>
       </c>
       <c r="B242" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C242">
         <v>2024</v>
       </c>
       <c r="D242">
-        <v>9</v>
-      </c>
-      <c r="E242" s="2" t="str">
-        <f>"183"</f>
-        <v>183</v>
+        <v>10</v>
+      </c>
+      <c r="E242" t="str">
+        <f>"236"</f>
+        <v>236</v>
       </c>
       <c r="F242" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -4865,20 +4854,20 @@
         <v>26</v>
       </c>
       <c r="B243" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C243">
         <v>2024</v>
       </c>
       <c r="D243">
+        <v>10</v>
+      </c>
+      <c r="E243" t="str">
+        <f>"144"</f>
+        <v>144</v>
+      </c>
+      <c r="F243" t="s">
         <v>9</v>
-      </c>
-      <c r="E243" s="2" t="str">
-        <f>"165"</f>
-        <v>165</v>
-      </c>
-      <c r="F243" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -4886,20 +4875,20 @@
         <v>27</v>
       </c>
       <c r="B244" t="s">
+        <v>14</v>
+      </c>
+      <c r="C244">
+        <v>2024</v>
+      </c>
+      <c r="D244">
+        <v>10</v>
+      </c>
+      <c r="E244" t="str">
+        <f>"130"</f>
+        <v>130</v>
+      </c>
+      <c r="F244" t="s">
         <v>15</v>
-      </c>
-      <c r="C244">
-        <v>2024</v>
-      </c>
-      <c r="D244">
-        <v>9</v>
-      </c>
-      <c r="E244" s="2" t="str">
-        <f>"92"</f>
-        <v>92</v>
-      </c>
-      <c r="F244" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -4907,17 +4896,17 @@
         <v>28</v>
       </c>
       <c r="B245" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C245">
         <v>2024</v>
       </c>
       <c r="D245">
-        <v>9</v>
-      </c>
-      <c r="E245" s="2" t="str">
-        <f>"65"</f>
-        <v>65</v>
+        <v>10</v>
+      </c>
+      <c r="E245" t="str">
+        <f>"66"</f>
+        <v>66</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -4925,17 +4914,17 @@
         <v>29</v>
       </c>
       <c r="B246" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C246">
         <v>2024</v>
       </c>
       <c r="D246">
-        <v>9</v>
-      </c>
-      <c r="E246" s="3" t="str">
-        <f>"0.65"</f>
-        <v>0.65</v>
+        <v>10</v>
+      </c>
+      <c r="E246" t="str">
+        <f>"0.66"</f>
+        <v>0.66</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -4943,15 +4932,15 @@
         <v>30</v>
       </c>
       <c r="B247" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C247">
         <v>2024</v>
       </c>
       <c r="D247">
-        <v>9</v>
-      </c>
-      <c r="E247" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E247" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4961,15 +4950,15 @@
         <v>31</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C248">
         <v>2024</v>
       </c>
       <c r="D248">
-        <v>9</v>
-      </c>
-      <c r="E248" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E248" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4979,15 +4968,15 @@
         <v>32</v>
       </c>
       <c r="B249" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C249">
         <v>2024</v>
       </c>
       <c r="D249">
-        <v>9</v>
-      </c>
-      <c r="E249" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E249" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -4997,15 +4986,15 @@
         <v>33</v>
       </c>
       <c r="B250" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C250">
         <v>2024</v>
       </c>
       <c r="D250">
-        <v>9</v>
-      </c>
-      <c r="E250" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E250" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5015,15 +5004,15 @@
         <v>34</v>
       </c>
       <c r="B251" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C251">
         <v>2024</v>
       </c>
       <c r="D251">
-        <v>9</v>
-      </c>
-      <c r="E251" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E251" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5033,15 +5022,15 @@
         <v>35</v>
       </c>
       <c r="B252" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C252">
         <v>2024</v>
       </c>
       <c r="D252">
-        <v>9</v>
-      </c>
-      <c r="E252" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E252" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5051,15 +5040,15 @@
         <v>36</v>
       </c>
       <c r="B253" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C253">
         <v>2024</v>
       </c>
       <c r="D253">
-        <v>9</v>
-      </c>
-      <c r="E253" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E253" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5069,15 +5058,15 @@
         <v>37</v>
       </c>
       <c r="B254" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C254">
         <v>2024</v>
       </c>
       <c r="D254">
-        <v>9</v>
-      </c>
-      <c r="E254" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E254" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5087,15 +5076,15 @@
         <v>38</v>
       </c>
       <c r="B255" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C255">
         <v>2024</v>
       </c>
       <c r="D255">
-        <v>9</v>
-      </c>
-      <c r="E255" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E255" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5105,15 +5094,15 @@
         <v>39</v>
       </c>
       <c r="B256" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C256">
         <v>2024</v>
       </c>
       <c r="D256">
-        <v>9</v>
-      </c>
-      <c r="E256" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E256" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5123,15 +5112,15 @@
         <v>40</v>
       </c>
       <c r="B257" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C257">
         <v>2024</v>
       </c>
       <c r="D257">
-        <v>9</v>
-      </c>
-      <c r="E257" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E257" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5141,15 +5130,15 @@
         <v>41</v>
       </c>
       <c r="B258" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C258">
         <v>2024</v>
       </c>
       <c r="D258">
-        <v>9</v>
-      </c>
-      <c r="E258" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E258" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5159,15 +5148,15 @@
         <v>42</v>
       </c>
       <c r="B259" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C259">
         <v>2024</v>
       </c>
       <c r="D259">
-        <v>9</v>
-      </c>
-      <c r="E259" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E259" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5177,15 +5166,15 @@
         <v>43</v>
       </c>
       <c r="B260" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C260">
         <v>2024</v>
       </c>
       <c r="D260">
-        <v>9</v>
-      </c>
-      <c r="E260" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E260" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5195,15 +5184,15 @@
         <v>44</v>
       </c>
       <c r="B261" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C261">
         <v>2024</v>
       </c>
       <c r="D261">
-        <v>9</v>
-      </c>
-      <c r="E261" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E261" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5213,15 +5202,15 @@
         <v>45</v>
       </c>
       <c r="B262" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C262">
         <v>2024</v>
       </c>
       <c r="D262">
-        <v>9</v>
-      </c>
-      <c r="E262" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E262" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5231,15 +5220,15 @@
         <v>46</v>
       </c>
       <c r="B263" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C263">
         <v>2024</v>
       </c>
       <c r="D263">
-        <v>9</v>
-      </c>
-      <c r="E263" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E263" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5249,15 +5238,15 @@
         <v>47</v>
       </c>
       <c r="B264" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C264">
         <v>2024</v>
       </c>
       <c r="D264">
-        <v>9</v>
-      </c>
-      <c r="E264" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E264" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5267,15 +5256,15 @@
         <v>48</v>
       </c>
       <c r="B265" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C265">
         <v>2024</v>
       </c>
       <c r="D265">
-        <v>9</v>
-      </c>
-      <c r="E265" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E265" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5285,15 +5274,15 @@
         <v>49</v>
       </c>
       <c r="B266" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C266">
         <v>2024</v>
       </c>
       <c r="D266">
-        <v>9</v>
-      </c>
-      <c r="E266" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E266" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5303,15 +5292,15 @@
         <v>50</v>
       </c>
       <c r="B267" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C267">
         <v>2024</v>
       </c>
       <c r="D267">
-        <v>9</v>
-      </c>
-      <c r="E267" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E267" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5321,15 +5310,15 @@
         <v>51</v>
       </c>
       <c r="B268" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C268">
         <v>2024</v>
       </c>
       <c r="D268">
-        <v>9</v>
-      </c>
-      <c r="E268" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E268" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5339,15 +5328,15 @@
         <v>52</v>
       </c>
       <c r="B269" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C269">
         <v>2024</v>
       </c>
       <c r="D269">
-        <v>9</v>
-      </c>
-      <c r="E269" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E269" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5357,15 +5346,15 @@
         <v>53</v>
       </c>
       <c r="B270" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C270">
         <v>2024</v>
       </c>
       <c r="D270">
-        <v>9</v>
-      </c>
-      <c r="E270" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E270" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5375,15 +5364,15 @@
         <v>54</v>
       </c>
       <c r="B271" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C271">
         <v>2024</v>
       </c>
       <c r="D271">
-        <v>9</v>
-      </c>
-      <c r="E271" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E271" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5393,17 +5382,17 @@
         <v>1</v>
       </c>
       <c r="B272" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C272">
         <v>2024</v>
       </c>
       <c r="D272">
-        <v>9</v>
-      </c>
-      <c r="E272" s="2" t="str">
-        <f>"46"</f>
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="E272" t="str">
+        <f>"30"</f>
+        <v>30</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -5411,17 +5400,17 @@
         <v>2</v>
       </c>
       <c r="B273" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C273">
         <v>2024</v>
       </c>
       <c r="D273">
-        <v>9</v>
-      </c>
-      <c r="E273" s="2" t="str">
-        <f>"46"</f>
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="E273" t="str">
+        <f>"30"</f>
+        <v>30</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
@@ -5429,17 +5418,17 @@
         <v>3</v>
       </c>
       <c r="B274" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C274">
         <v>2024</v>
       </c>
       <c r="D274">
-        <v>9</v>
-      </c>
-      <c r="E274" s="3" t="str">
-        <f>"96.86"</f>
-        <v>96.86</v>
+        <v>10</v>
+      </c>
+      <c r="E274" t="str">
+        <f>"95.06"</f>
+        <v>95.06</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -5447,17 +5436,17 @@
         <v>4</v>
       </c>
       <c r="B275" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C275">
         <v>2024</v>
       </c>
       <c r="D275">
-        <v>9</v>
-      </c>
-      <c r="E275" s="2" t="str">
-        <f>"1"</f>
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E275" t="str">
+        <f>"3"</f>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -5465,17 +5454,17 @@
         <v>5</v>
       </c>
       <c r="B276" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C276">
         <v>2024</v>
       </c>
       <c r="D276">
-        <v>9</v>
-      </c>
-      <c r="E276" s="3" t="str">
-        <f>"0.02"</f>
-        <v>0.02</v>
+        <v>10</v>
+      </c>
+      <c r="E276" t="str">
+        <f>"0.1"</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -5483,17 +5472,17 @@
         <v>6</v>
       </c>
       <c r="B277" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C277">
         <v>2024</v>
       </c>
       <c r="D277">
-        <v>9</v>
-      </c>
-      <c r="E277" s="2" t="str">
-        <f>"99"</f>
-        <v>99</v>
+        <v>10</v>
+      </c>
+      <c r="E277" t="str">
+        <f>"76"</f>
+        <v>76</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
@@ -5501,17 +5490,17 @@
         <v>7</v>
       </c>
       <c r="B278" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C278">
         <v>2024</v>
       </c>
       <c r="D278">
-        <v>9</v>
-      </c>
-      <c r="E278" s="3" t="str">
-        <f>"4.17"</f>
-        <v>4.17</v>
+        <v>10</v>
+      </c>
+      <c r="E278" t="str">
+        <f>"1.86"</f>
+        <v>1.86</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
@@ -5519,17 +5508,17 @@
         <v>8</v>
       </c>
       <c r="B279" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C279">
         <v>2024</v>
       </c>
       <c r="D279">
-        <v>9</v>
-      </c>
-      <c r="E279" s="2" t="str">
-        <f>"9"</f>
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E279" t="str">
+        <f>"16"</f>
+        <v>16</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -5537,17 +5526,17 @@
         <v>9</v>
       </c>
       <c r="B280" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C280">
         <v>2024</v>
       </c>
       <c r="D280">
-        <v>9</v>
-      </c>
-      <c r="E280" s="2" t="str">
-        <f>"10"</f>
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E280" t="str">
+        <f>"0.56"</f>
+        <v>0.56</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -5555,17 +5544,17 @@
         <v>10</v>
       </c>
       <c r="B281" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C281">
         <v>2024</v>
       </c>
       <c r="D281">
-        <v>9</v>
-      </c>
-      <c r="E281" s="2" t="str">
-        <f>"1"</f>
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E281" t="str">
+        <f>"10"</f>
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -5573,17 +5562,17 @@
         <v>11</v>
       </c>
       <c r="B282" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C282">
         <v>2024</v>
       </c>
       <c r="D282">
-        <v>9</v>
-      </c>
-      <c r="E282" s="2" t="str">
-        <f>"0"</f>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E282" t="str">
+        <f>"8"</f>
+        <v>8</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -5591,17 +5580,17 @@
         <v>12</v>
       </c>
       <c r="B283" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C283">
         <v>2024</v>
       </c>
       <c r="D283">
-        <v>9</v>
-      </c>
-      <c r="E283" s="2" t="str">
-        <f>"8"</f>
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E283" t="str">
+        <f>"16"</f>
+        <v>16</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
@@ -5609,17 +5598,17 @@
         <v>13</v>
       </c>
       <c r="B284" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C284">
         <v>2024</v>
       </c>
       <c r="D284">
-        <v>9</v>
-      </c>
-      <c r="E284" s="2" t="str">
-        <f>"46"</f>
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="E284" t="str">
+        <f>"39"</f>
+        <v>39</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
@@ -5627,17 +5616,17 @@
         <v>14</v>
       </c>
       <c r="B285" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C285">
         <v>2024</v>
       </c>
       <c r="D285">
-        <v>9</v>
-      </c>
-      <c r="E285" s="2" t="str">
-        <f>"28"</f>
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="E285" t="str">
+        <f>"24"</f>
+        <v>24</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
@@ -5645,17 +5634,17 @@
         <v>15</v>
       </c>
       <c r="B286" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C286">
         <v>2024</v>
       </c>
       <c r="D286">
-        <v>9</v>
-      </c>
-      <c r="E286" s="2" t="str">
-        <f>"37"</f>
-        <v>37</v>
+        <v>10</v>
+      </c>
+      <c r="E286" t="str">
+        <f>"44"</f>
+        <v>44</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -5663,17 +5652,17 @@
         <v>16</v>
       </c>
       <c r="B287" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C287">
         <v>2024</v>
       </c>
       <c r="D287">
-        <v>9</v>
-      </c>
-      <c r="E287" s="2" t="str">
-        <f>"10"</f>
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E287" t="str">
+        <f>"34"</f>
+        <v>34</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -5681,17 +5670,17 @@
         <v>17</v>
       </c>
       <c r="B288" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C288">
         <v>2024</v>
       </c>
       <c r="D288">
-        <v>9</v>
-      </c>
-      <c r="E288" s="2" t="str">
-        <f>"491"</f>
-        <v>491</v>
+        <v>10</v>
+      </c>
+      <c r="E288" t="str">
+        <f>"500"</f>
+        <v>500</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -5699,17 +5688,17 @@
         <v>18</v>
       </c>
       <c r="B289" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C289">
         <v>2024</v>
       </c>
       <c r="D289">
-        <v>9</v>
-      </c>
-      <c r="E289" s="2" t="str">
-        <f>"112"</f>
-        <v>112</v>
+        <v>10</v>
+      </c>
+      <c r="E289" t="str">
+        <f>"124"</f>
+        <v>124</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -5717,17 +5706,17 @@
         <v>19</v>
       </c>
       <c r="B290" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C290">
         <v>2024</v>
       </c>
       <c r="D290">
-        <v>9</v>
-      </c>
-      <c r="E290" s="2" t="str">
-        <f>"42"</f>
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="E290" t="str">
+        <f>"36"</f>
+        <v>36</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -5735,17 +5724,17 @@
         <v>20</v>
       </c>
       <c r="B291" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C291">
         <v>2024</v>
       </c>
       <c r="D291">
-        <v>9</v>
-      </c>
-      <c r="E291" s="2" t="str">
-        <f>"31"</f>
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="E291" t="str">
+        <f>"46"</f>
+        <v>46</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -5753,17 +5742,17 @@
         <v>21</v>
       </c>
       <c r="B292" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C292">
         <v>2024</v>
       </c>
       <c r="D292">
-        <v>9</v>
-      </c>
-      <c r="E292" s="2" t="str">
-        <f>"39"</f>
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="E292" t="str">
+        <f>"42"</f>
+        <v>42</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -5771,17 +5760,17 @@
         <v>22</v>
       </c>
       <c r="B293" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C293">
         <v>2024</v>
       </c>
       <c r="D293">
-        <v>9</v>
-      </c>
-      <c r="E293" s="3" t="str">
-        <f>"0.375"</f>
-        <v>0.375</v>
+        <v>10</v>
+      </c>
+      <c r="E293" t="str">
+        <f>"0.290323"</f>
+        <v>0.290323</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -5789,17 +5778,17 @@
         <v>23</v>
       </c>
       <c r="B294" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C294">
         <v>2024</v>
       </c>
       <c r="D294">
-        <v>9</v>
-      </c>
-      <c r="E294" s="3" t="str">
-        <f>"0.276786"</f>
-        <v>0.276786</v>
+        <v>10</v>
+      </c>
+      <c r="E294" t="str">
+        <f>"0.370968"</f>
+        <v>0.370968</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -5807,17 +5796,17 @@
         <v>24</v>
       </c>
       <c r="B295" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C295">
         <v>2024</v>
       </c>
       <c r="D295">
-        <v>9</v>
-      </c>
-      <c r="E295" s="3" t="str">
-        <f>"0.348214"</f>
-        <v>0.348214</v>
+        <v>10</v>
+      </c>
+      <c r="E295" t="str">
+        <f>"0.33871"</f>
+        <v>0.33871</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -5825,17 +5814,17 @@
         <v>25</v>
       </c>
       <c r="B296" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C296">
         <v>2024</v>
       </c>
       <c r="D296">
-        <v>9</v>
-      </c>
-      <c r="E296" s="2" t="str">
-        <f>"10"</f>
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="E296" t="str">
+        <f>"24"</f>
+        <v>24</v>
       </c>
       <c r="F296" t="s">
         <v>9</v>
@@ -5846,17 +5835,17 @@
         <v>26</v>
       </c>
       <c r="B297" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C297">
         <v>2024</v>
       </c>
       <c r="D297">
-        <v>9</v>
-      </c>
-      <c r="E297" s="2" t="str">
-        <f>"5"</f>
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E297" t="str">
+        <f>"16"</f>
+        <v>16</v>
       </c>
       <c r="F297" t="s">
         <v>7</v>
@@ -5867,20 +5856,20 @@
         <v>27</v>
       </c>
       <c r="B298" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C298">
         <v>2024</v>
       </c>
       <c r="D298">
-        <v>9</v>
-      </c>
-      <c r="E298" s="2" t="str">
-        <f>"4"</f>
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="E298" t="str">
+        <f>"11"</f>
+        <v>11</v>
       </c>
       <c r="F298" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -5888,17 +5877,17 @@
         <v>28</v>
       </c>
       <c r="B299" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C299">
         <v>2024</v>
       </c>
       <c r="D299">
-        <v>9</v>
-      </c>
-      <c r="E299" s="2" t="str">
-        <f>"273"</f>
-        <v>273</v>
+        <v>10</v>
+      </c>
+      <c r="E299" t="str">
+        <f>"280"</f>
+        <v>280</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -5906,17 +5895,17 @@
         <v>29</v>
       </c>
       <c r="B300" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C300">
         <v>2024</v>
       </c>
       <c r="D300">
-        <v>9</v>
-      </c>
-      <c r="E300" s="3" t="str">
-        <f>"0.96"</f>
-        <v>0.96</v>
+        <v>10</v>
+      </c>
+      <c r="E300" t="str">
+        <f>"0.98"</f>
+        <v>0.98</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -5924,15 +5913,15 @@
         <v>30</v>
       </c>
       <c r="B301" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C301">
         <v>2024</v>
       </c>
       <c r="D301">
-        <v>9</v>
-      </c>
-      <c r="E301" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E301" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5942,15 +5931,15 @@
         <v>31</v>
       </c>
       <c r="B302" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C302">
         <v>2024</v>
       </c>
       <c r="D302">
-        <v>9</v>
-      </c>
-      <c r="E302" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E302" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5960,15 +5949,15 @@
         <v>32</v>
       </c>
       <c r="B303" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C303">
         <v>2024</v>
       </c>
       <c r="D303">
-        <v>9</v>
-      </c>
-      <c r="E303" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E303" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5978,15 +5967,15 @@
         <v>33</v>
       </c>
       <c r="B304" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C304">
         <v>2024</v>
       </c>
       <c r="D304">
-        <v>9</v>
-      </c>
-      <c r="E304" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E304" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -5996,15 +5985,15 @@
         <v>34</v>
       </c>
       <c r="B305" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C305">
         <v>2024</v>
       </c>
       <c r="D305">
-        <v>9</v>
-      </c>
-      <c r="E305" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E305" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -6014,15 +6003,15 @@
         <v>35</v>
       </c>
       <c r="B306" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C306">
         <v>2024</v>
       </c>
       <c r="D306">
-        <v>9</v>
-      </c>
-      <c r="E306" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E306" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -6032,15 +6021,15 @@
         <v>36</v>
       </c>
       <c r="B307" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C307">
         <v>2024</v>
       </c>
       <c r="D307">
-        <v>9</v>
-      </c>
-      <c r="E307" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E307" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -6050,15 +6039,15 @@
         <v>37</v>
       </c>
       <c r="B308" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C308">
         <v>2024</v>
       </c>
       <c r="D308">
-        <v>9</v>
-      </c>
-      <c r="E308" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E308" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -6068,15 +6057,15 @@
         <v>38</v>
       </c>
       <c r="B309" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C309">
         <v>2024</v>
       </c>
       <c r="D309">
-        <v>9</v>
-      </c>
-      <c r="E309" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E309" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -6086,15 +6075,15 @@
         <v>39</v>
       </c>
       <c r="B310" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C310">
         <v>2024</v>
       </c>
       <c r="D310">
-        <v>9</v>
-      </c>
-      <c r="E310" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E310" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -6104,15 +6093,15 @@
         <v>40</v>
       </c>
       <c r="B311" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C311">
         <v>2024</v>
       </c>
       <c r="D311">
-        <v>9</v>
-      </c>
-      <c r="E311" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E311" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -6122,15 +6111,15 @@
         <v>41</v>
       </c>
       <c r="B312" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C312">
         <v>2024</v>
       </c>
       <c r="D312">
-        <v>9</v>
-      </c>
-      <c r="E312" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E312" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -6140,15 +6129,15 @@
         <v>42</v>
       </c>
       <c r="B313" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C313">
         <v>2024</v>
       </c>
       <c r="D313">
-        <v>9</v>
-      </c>
-      <c r="E313" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E313" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -6158,15 +6147,15 @@
         <v>43</v>
       </c>
       <c r="B314" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C314">
         <v>2024</v>
       </c>
       <c r="D314">
-        <v>9</v>
-      </c>
-      <c r="E314" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E314" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -6176,15 +6165,15 @@
         <v>44</v>
       </c>
       <c r="B315" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C315">
         <v>2024</v>
       </c>
       <c r="D315">
-        <v>9</v>
-      </c>
-      <c r="E315" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E315" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -6194,15 +6183,15 @@
         <v>45</v>
       </c>
       <c r="B316" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C316">
         <v>2024</v>
       </c>
       <c r="D316">
-        <v>9</v>
-      </c>
-      <c r="E316" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E316" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -6212,15 +6201,15 @@
         <v>46</v>
       </c>
       <c r="B317" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C317">
         <v>2024</v>
       </c>
       <c r="D317">
-        <v>9</v>
-      </c>
-      <c r="E317" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E317" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -6230,15 +6219,15 @@
         <v>47</v>
       </c>
       <c r="B318" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C318">
         <v>2024</v>
       </c>
       <c r="D318">
-        <v>9</v>
-      </c>
-      <c r="E318" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E318" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -6248,15 +6237,15 @@
         <v>48</v>
       </c>
       <c r="B319" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C319">
         <v>2024</v>
       </c>
       <c r="D319">
-        <v>9</v>
-      </c>
-      <c r="E319" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E319" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -6266,15 +6255,15 @@
         <v>49</v>
       </c>
       <c r="B320" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C320">
         <v>2024</v>
       </c>
       <c r="D320">
-        <v>9</v>
-      </c>
-      <c r="E320" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E320" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -6284,15 +6273,15 @@
         <v>50</v>
       </c>
       <c r="B321" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C321">
         <v>2024</v>
       </c>
       <c r="D321">
-        <v>9</v>
-      </c>
-      <c r="E321" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E321" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -6302,15 +6291,15 @@
         <v>51</v>
       </c>
       <c r="B322" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C322">
         <v>2024</v>
       </c>
       <c r="D322">
-        <v>9</v>
-      </c>
-      <c r="E322" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E322" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -6320,15 +6309,15 @@
         <v>52</v>
       </c>
       <c r="B323" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C323">
         <v>2024</v>
       </c>
       <c r="D323">
-        <v>9</v>
-      </c>
-      <c r="E323" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E323" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -6338,15 +6327,15 @@
         <v>53</v>
       </c>
       <c r="B324" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C324">
         <v>2024</v>
       </c>
       <c r="D324">
-        <v>9</v>
-      </c>
-      <c r="E324" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E324" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>
@@ -6356,15 +6345,15 @@
         <v>54</v>
       </c>
       <c r="B325" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C325">
         <v>2024</v>
       </c>
       <c r="D325">
-        <v>9</v>
-      </c>
-      <c r="E325" s="2" t="str">
+        <v>10</v>
+      </c>
+      <c r="E325" t="str">
         <f>"0"</f>
         <v>0</v>
       </c>

--- a/data/Monthly Infographic - Hyperlinks.xlsx
+++ b/data/Monthly Infographic - Hyperlinks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cpgplc-my.sharepoint.com/personal/hard_parikh_compass-usa_com/Documents/Desktop/infographic automation/Infographic-Automation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="324" documentId="11_5981C70F171169370BFA3311595ED87656CC3C06" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C0F2B75-2971-4038-98AB-22F7B85C557D}"/>
+  <xr:revisionPtr revIDLastSave="324" documentId="11_7235051F1721610FEBF93511595ED87656CC1C8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13B96239-C265-4A42-9C89-A823FA628E1A}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Infographic" sheetId="1" r:id="rId1"/>
@@ -3519,8 +3519,8 @@
         <v>10</v>
       </c>
       <c r="E169" t="str">
-        <f>"93"</f>
-        <v>93</v>
+        <f>"104"</f>
+        <v>104</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -3537,8 +3537,8 @@
         <v>10</v>
       </c>
       <c r="E170" t="str">
-        <f>"2.66"</f>
-        <v>2.66</v>
+        <f>"3.12"</f>
+        <v>3.12</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -3555,8 +3555,8 @@
         <v>10</v>
       </c>
       <c r="E171" t="str">
-        <f>"29"</f>
-        <v>29</v>
+        <f>"40"</f>
+        <v>40</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -3573,8 +3573,8 @@
         <v>10</v>
       </c>
       <c r="E172" t="str">
-        <f>"4.04"</f>
-        <v>4.04</v>
+        <f>"4.92"</f>
+        <v>4.92</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -3699,8 +3699,8 @@
         <v>10</v>
       </c>
       <c r="E179" t="str">
-        <f>"18"</f>
-        <v>18</v>
+        <f>"7"</f>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -4410,8 +4410,8 @@
         <v>10</v>
       </c>
       <c r="E218" t="str">
-        <f>"32"</f>
-        <v>32</v>
+        <f>"33"</f>
+        <v>33</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -4428,8 +4428,8 @@
         <v>10</v>
       </c>
       <c r="E219" t="str">
-        <f>"31"</f>
-        <v>31</v>
+        <f>"32"</f>
+        <v>32</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -4446,8 +4446,8 @@
         <v>10</v>
       </c>
       <c r="E220" t="str">
-        <f>"97.92"</f>
-        <v>97.92</v>
+        <f>"97.93"</f>
+        <v>97.93</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -4662,8 +4662,8 @@
         <v>10</v>
       </c>
       <c r="E232" t="str">
-        <f>"22"</f>
-        <v>22</v>
+        <f>"23"</f>
+        <v>23</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
@@ -5391,8 +5391,8 @@
         <v>10</v>
       </c>
       <c r="E272" t="str">
-        <f>"30"</f>
-        <v>30</v>
+        <f>"35"</f>
+        <v>35</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -5409,8 +5409,8 @@
         <v>10</v>
       </c>
       <c r="E273" t="str">
-        <f>"30"</f>
-        <v>30</v>
+        <f>"35"</f>
+        <v>35</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
@@ -5427,8 +5427,8 @@
         <v>10</v>
       </c>
       <c r="E274" t="str">
-        <f>"95.06"</f>
-        <v>95.06</v>
+        <f>"95.36"</f>
+        <v>95.36</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -5463,8 +5463,8 @@
         <v>10</v>
       </c>
       <c r="E276" t="str">
-        <f>"0.1"</f>
-        <v>0.1</v>
+        <f>"0.09"</f>
+        <v>0.09</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -5607,8 +5607,8 @@
         <v>10</v>
       </c>
       <c r="E284" t="str">
-        <f>"39"</f>
-        <v>39</v>
+        <f>"42"</f>
+        <v>42</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
@@ -5643,8 +5643,8 @@
         <v>10</v>
       </c>
       <c r="E286" t="str">
-        <f>"44"</f>
-        <v>44</v>
+        <f>"51"</f>
+        <v>51</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
